--- a/Code/Results/Cases/Case_5_166/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_166/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.949690454012369</v>
+        <v>0.6194284934352936</v>
       </c>
       <c r="C2">
-        <v>0.5356326916685248</v>
+        <v>0.1725593584462786</v>
       </c>
       <c r="D2">
-        <v>0.03668771612159816</v>
+        <v>0.0135231891998373</v>
       </c>
       <c r="E2">
-        <v>0.2287651825426238</v>
+        <v>0.1282636622105215</v>
       </c>
       <c r="F2">
-        <v>0.5157489915471061</v>
+        <v>0.5034795799655143</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1826919258339856</v>
+        <v>0.3408651183409077</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8864833804309455</v>
+        <v>0.3083193749590762</v>
       </c>
       <c r="N2">
-        <v>0.5660125643607969</v>
+        <v>0.9311592783408713</v>
       </c>
       <c r="O2">
-        <v>1.410230770116357</v>
+        <v>1.612172864956648</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.698727569499169</v>
+        <v>0.5420733954248078</v>
       </c>
       <c r="C3">
-        <v>0.4703531030782528</v>
+        <v>0.1519890321154094</v>
       </c>
       <c r="D3">
-        <v>0.03251192333131314</v>
+        <v>0.01213268093606956</v>
       </c>
       <c r="E3">
-        <v>0.1997696672577263</v>
+        <v>0.1218239920399995</v>
       </c>
       <c r="F3">
-        <v>0.4646816732663126</v>
+        <v>0.4948761282577863</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1783815677034148</v>
+        <v>0.3436564154520951</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7676121704600192</v>
+        <v>0.2744500294856138</v>
       </c>
       <c r="N3">
-        <v>0.5858457231617535</v>
+        <v>0.9400192022935059</v>
       </c>
       <c r="O3">
-        <v>1.287787709592436</v>
+        <v>1.596948262432562</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.544742553767179</v>
+        <v>0.4944770899284379</v>
       </c>
       <c r="C4">
-        <v>0.4302870239952199</v>
+        <v>0.1392938856775459</v>
       </c>
       <c r="D4">
-        <v>0.02994070095290624</v>
+        <v>0.01127379038392462</v>
       </c>
       <c r="E4">
-        <v>0.1824440703655128</v>
+        <v>0.1179836283755336</v>
       </c>
       <c r="F4">
-        <v>0.4343608126776672</v>
+        <v>0.4899921034708754</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1763535686861104</v>
+        <v>0.3456378482473923</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6951395815335886</v>
+        <v>0.2537132601275118</v>
       </c>
       <c r="N4">
-        <v>0.598945018649836</v>
+        <v>0.9458704867437859</v>
       </c>
       <c r="O4">
-        <v>1.215925620330125</v>
+        <v>1.58889822309817</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.481998614783123</v>
+        <v>0.4750571129632419</v>
       </c>
       <c r="C5">
-        <v>0.413957472615067</v>
+        <v>0.134104397221904</v>
       </c>
       <c r="D5">
-        <v>0.02889093022697864</v>
+        <v>0.01092252354636258</v>
       </c>
       <c r="E5">
-        <v>0.1754915547377678</v>
+        <v>0.1164469638192074</v>
       </c>
       <c r="F5">
-        <v>0.4222454952809045</v>
+        <v>0.4881018492000919</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.175673851524202</v>
+        <v>0.34651243347205</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6657151260926213</v>
+        <v>0.2452777522453076</v>
       </c>
       <c r="N5">
-        <v>0.6045070704213416</v>
+        <v>0.948358372953173</v>
       </c>
       <c r="O5">
-        <v>1.187415966875534</v>
+        <v>1.5859434156595</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.47157982477637</v>
+        <v>0.4718310159394719</v>
       </c>
       <c r="C6">
-        <v>0.4112456483158553</v>
+        <v>0.1332417193931406</v>
       </c>
       <c r="D6">
-        <v>0.02871649307785873</v>
+        <v>0.01086412043557061</v>
       </c>
       <c r="E6">
-        <v>0.1743432596899765</v>
+        <v>0.1161935045138378</v>
       </c>
       <c r="F6">
-        <v>0.4202477416570645</v>
+        <v>0.4877940097165805</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1755695959167731</v>
+        <v>0.3466617082070336</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6608352010514906</v>
+        <v>0.2438779428478526</v>
       </c>
       <c r="N6">
-        <v>0.6054439536632046</v>
+        <v>0.9487777329735181</v>
       </c>
       <c r="O6">
-        <v>1.182727066237874</v>
+        <v>1.58547241930836</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.543896368420889</v>
+        <v>0.4942152815112308</v>
       </c>
       <c r="C7">
-        <v>0.4300668152728804</v>
+        <v>0.1392239633949544</v>
       </c>
       <c r="D7">
-        <v>0.02992655156996449</v>
+        <v>0.01126905815480939</v>
       </c>
       <c r="E7">
-        <v>0.1823498855604484</v>
+        <v>0.1179627900721911</v>
       </c>
       <c r="F7">
-        <v>0.4341964718002203</v>
+        <v>0.4899662060916299</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1763438191177435</v>
+        <v>0.3456493715760871</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6947423393712526</v>
+        <v>0.2535994355825011</v>
       </c>
       <c r="N7">
-        <v>0.5990191334871255</v>
+        <v>0.945903620384918</v>
       </c>
       <c r="O7">
-        <v>1.215538068945733</v>
+        <v>1.588857055957931</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.863123224950527</v>
+        <v>0.5927778029779063</v>
       </c>
       <c r="C8">
-        <v>0.5131170688491977</v>
+        <v>0.1654802915242328</v>
       </c>
       <c r="D8">
-        <v>0.03524931694548172</v>
+        <v>0.01304481692855575</v>
       </c>
       <c r="E8">
-        <v>0.218660699828078</v>
+        <v>0.1260195259336783</v>
       </c>
       <c r="F8">
-        <v>0.4979141626327817</v>
+        <v>0.5004302778597634</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1810718672237748</v>
+        <v>0.3417719362566984</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8453768264308792</v>
+        <v>0.2966289509915043</v>
       </c>
       <c r="N8">
-        <v>0.5726549372414453</v>
+        <v>0.9341288392769584</v>
       </c>
       <c r="O8">
-        <v>1.367286688621391</v>
+        <v>1.606653590733941</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.491010451773207</v>
+        <v>0.7852290036541376</v>
       </c>
       <c r="C9">
-        <v>0.6764167628638518</v>
+        <v>0.2164475552774263</v>
       </c>
       <c r="D9">
-        <v>0.04563737770315157</v>
+        <v>0.01648562158362665</v>
       </c>
       <c r="E9">
-        <v>0.2942564550334836</v>
+        <v>0.1427327368123628</v>
       </c>
       <c r="F9">
-        <v>0.6320119980904906</v>
+        <v>0.5241227882272028</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1956740062429851</v>
+        <v>0.336298087261941</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.145870254365533</v>
+        <v>0.3814824730977904</v>
       </c>
       <c r="N9">
-        <v>0.5286390287246121</v>
+        <v>0.9143006215767926</v>
       </c>
       <c r="O9">
-        <v>1.694067185300128</v>
+        <v>1.651888208096096</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.955056207663972</v>
+        <v>0.9260818240026651</v>
       </c>
       <c r="C10">
-        <v>0.79714083963907</v>
+        <v>0.2535701757806237</v>
       </c>
       <c r="D10">
-        <v>0.05325158252444595</v>
+        <v>0.01898735174597732</v>
       </c>
       <c r="E10">
-        <v>0.3533776329486997</v>
+        <v>0.1555876722083909</v>
       </c>
       <c r="F10">
-        <v>0.7375075878392465</v>
+        <v>0.5434807257051233</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2102770481737757</v>
+        <v>0.3335844847410456</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.371289656668296</v>
+        <v>0.4441237877434077</v>
       </c>
       <c r="N10">
-        <v>0.5015337030670821</v>
+        <v>0.901720308371992</v>
       </c>
       <c r="O10">
-        <v>1.95623300351869</v>
+        <v>1.691480876081044</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.167143686454835</v>
+        <v>0.9900352928326583</v>
       </c>
       <c r="C11">
-        <v>0.8523414654611656</v>
+        <v>0.2703871859748972</v>
       </c>
       <c r="D11">
-        <v>0.05671467283394094</v>
+        <v>0.02011956918149593</v>
       </c>
       <c r="E11">
-        <v>0.3812723216783098</v>
+        <v>0.1615648086037638</v>
       </c>
       <c r="F11">
-        <v>0.7873500522985779</v>
+        <v>0.552714613214647</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2179114797752639</v>
+        <v>0.3326361203143371</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.475222630389254</v>
+        <v>0.4726887606742025</v>
       </c>
       <c r="N11">
-        <v>0.4904707180177468</v>
+        <v>0.8964286139695119</v>
       </c>
       <c r="O11">
-        <v>2.081322355819907</v>
+        <v>1.710886183006835</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.247632400132545</v>
+        <v>1.014234513232566</v>
       </c>
       <c r="C12">
-        <v>0.8732956944174646</v>
+        <v>0.2767450911489675</v>
       </c>
       <c r="D12">
-        <v>0.05802622553714798</v>
+        <v>0.02054745068963371</v>
       </c>
       <c r="E12">
-        <v>0.3919994293756801</v>
+        <v>0.1638470985907645</v>
       </c>
       <c r="F12">
-        <v>0.8065206008504475</v>
+        <v>0.5562730213843992</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2209585396690841</v>
+        <v>0.3323183020425979</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.514812895687101</v>
+        <v>0.4835155948606769</v>
       </c>
       <c r="N12">
-        <v>0.4864756693906642</v>
+        <v>0.8944867908889478</v>
       </c>
       <c r="O12">
-        <v>2.129621503699184</v>
+        <v>1.718435883464736</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.230289336199121</v>
+        <v>1.009023622240875</v>
       </c>
       <c r="C13">
-        <v>0.8687803861366206</v>
+        <v>0.275376265651488</v>
       </c>
       <c r="D13">
-        <v>0.05774374807184302</v>
+        <v>0.02045533762079543</v>
       </c>
       <c r="E13">
-        <v>0.3896815199563974</v>
+        <v>0.1633547225914853</v>
       </c>
       <c r="F13">
-        <v>0.8023782001419875</v>
+        <v>0.5555039055048923</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2202951335959611</v>
+        <v>0.332384910049587</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.506275492296197</v>
+        <v>0.4811834027971287</v>
       </c>
       <c r="N13">
-        <v>0.4873272336142449</v>
+        <v>0.8949022380919729</v>
       </c>
       <c r="O13">
-        <v>2.119176483145139</v>
+        <v>1.716800953093468</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.173761817317427</v>
+        <v>0.9920265559777022</v>
       </c>
       <c r="C14">
-        <v>0.8540642990093659</v>
+        <v>0.2709104630305319</v>
       </c>
       <c r="D14">
-        <v>0.05682257044046679</v>
+        <v>0.02015478872873189</v>
       </c>
       <c r="E14">
-        <v>0.3821514384266393</v>
+        <v>0.1617521940440696</v>
       </c>
       <c r="F14">
-        <v>0.7889211067132038</v>
+        <v>0.5530061271349922</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.218158954393548</v>
+        <v>0.3326091443882788</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.478474871573667</v>
+        <v>0.4735792926846045</v>
       </c>
       <c r="N14">
-        <v>0.4901380775705348</v>
+        <v>0.8962676157349279</v>
       </c>
       <c r="O14">
-        <v>2.085276751455496</v>
+        <v>1.711503261737676</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.139161009925942</v>
+        <v>0.9816129098119291</v>
       </c>
       <c r="C15">
-        <v>0.8450572276894377</v>
+        <v>0.2681736777143726</v>
       </c>
       <c r="D15">
-        <v>0.0562583505725982</v>
+        <v>0.01997058047859923</v>
       </c>
       <c r="E15">
-        <v>0.3775610332365602</v>
+        <v>0.160773065736656</v>
       </c>
       <c r="F15">
-        <v>0.7807177636376395</v>
+        <v>0.5514842117100898</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2168712257399861</v>
+        <v>0.3327518788152659</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.461477588070693</v>
+        <v>0.4689228435886434</v>
       </c>
       <c r="N15">
-        <v>0.4918854715949053</v>
+        <v>0.8971120275688591</v>
       </c>
       <c r="O15">
-        <v>2.064636234895119</v>
+        <v>1.708284516414409</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.941218513081083</v>
+        <v>0.9218997779911433</v>
       </c>
       <c r="C16">
-        <v>0.7935398965083778</v>
+        <v>0.2524697113040304</v>
       </c>
       <c r="D16">
-        <v>0.05302526913592942</v>
+        <v>0.01891323909109843</v>
       </c>
       <c r="E16">
-        <v>0.3515764582323939</v>
+        <v>0.1551996789619281</v>
       </c>
       <c r="F16">
-        <v>0.7342900420939031</v>
+        <v>0.5428858970606427</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2097992010021024</v>
+        <v>0.3336522335804801</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.364528125489386</v>
+        <v>0.4422583870204733</v>
       </c>
       <c r="N16">
-        <v>0.5022832048854582</v>
+        <v>0.9020748111944599</v>
       </c>
       <c r="O16">
-        <v>1.948183140310306</v>
+        <v>1.690240822609553</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.820063790518645</v>
+        <v>0.8852358523258772</v>
       </c>
       <c r="C17">
-        <v>0.7620151204298509</v>
+        <v>0.2428176792677448</v>
       </c>
       <c r="D17">
-        <v>0.05104188224603234</v>
+        <v>0.01826308212041283</v>
       </c>
       <c r="E17">
-        <v>0.3359057154356861</v>
+        <v>0.1518139155644036</v>
       </c>
       <c r="F17">
-        <v>0.7063030851307275</v>
+        <v>0.5377208449864668</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2057239593674289</v>
+        <v>0.3342779621945731</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.305431296298011</v>
+        <v>0.4259182816420264</v>
       </c>
       <c r="N17">
-        <v>0.5089947534197279</v>
+        <v>0.9052297649853216</v>
       </c>
       <c r="O17">
-        <v>1.878299289325213</v>
+        <v>1.67952932413553</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.75046989522923</v>
+        <v>0.8641363936358744</v>
       </c>
       <c r="C18">
-        <v>0.743908836508524</v>
+        <v>0.2372594865412339</v>
       </c>
       <c r="D18">
-        <v>0.04990101322312057</v>
+        <v>0.01788858162592533</v>
       </c>
       <c r="E18">
-        <v>0.3269851478471395</v>
+        <v>0.1498786736076809</v>
       </c>
       <c r="F18">
-        <v>0.6903781190060414</v>
+        <v>0.5347903038725974</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2034724400156414</v>
+        <v>0.334664780529323</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.271568893461989</v>
+        <v>0.4165263939940189</v>
       </c>
       <c r="N18">
-        <v>0.5129735780711044</v>
+        <v>0.9070849912034546</v>
       </c>
       <c r="O18">
-        <v>1.838646638669871</v>
+        <v>1.673499552609684</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.726921273957998</v>
+        <v>0.8569905669909303</v>
       </c>
       <c r="C19">
-        <v>0.7377825147612782</v>
+        <v>0.2353764515522414</v>
       </c>
       <c r="D19">
-        <v>0.04951471406285179</v>
+        <v>0.01776168897001185</v>
       </c>
       <c r="E19">
-        <v>0.323980155245394</v>
+        <v>0.1492255139549528</v>
       </c>
       <c r="F19">
-        <v>0.6850149315213372</v>
+        <v>0.5338049813531143</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2027255981489731</v>
+        <v>0.334800368180435</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.260124769128112</v>
+        <v>0.4133475813613501</v>
       </c>
       <c r="N19">
-        <v>0.5143407437483916</v>
+        <v>0.9077201078600794</v>
       </c>
       <c r="O19">
-        <v>1.825311443441478</v>
+        <v>1.671480484180449</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.832951256920353</v>
+        <v>0.889139971578004</v>
       </c>
       <c r="C20">
-        <v>0.7653682309012311</v>
+        <v>0.2438458392075802</v>
       </c>
       <c r="D20">
-        <v>0.05125302343769533</v>
+        <v>0.0183323492823817</v>
       </c>
       <c r="E20">
-        <v>0.337564144972859</v>
+        <v>0.152173075388724</v>
       </c>
       <c r="F20">
-        <v>0.7092642928618176</v>
+        <v>0.5382665052964768</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2061481128506379</v>
+        <v>0.3342085653944551</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.311708719322823</v>
+        <v>0.4276570404212663</v>
       </c>
       <c r="N20">
-        <v>0.5082679470803981</v>
+        <v>0.904889714678454</v>
       </c>
       <c r="O20">
-        <v>1.885681732069401</v>
+        <v>1.680655996881853</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.190360269328835</v>
+        <v>0.9970195194483722</v>
       </c>
       <c r="C21">
-        <v>0.8583853009708662</v>
+        <v>0.2722224597310969</v>
       </c>
       <c r="D21">
-        <v>0.0570931363230045</v>
+        <v>0.02024309089736676</v>
       </c>
       <c r="E21">
-        <v>0.3843585851462095</v>
+        <v>0.1622223809726151</v>
       </c>
       <c r="F21">
-        <v>0.7928654894792544</v>
+        <v>0.5537381080496999</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2187820536571508</v>
+        <v>0.3325421589150004</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.486633980289852</v>
+        <v>0.4758125358242182</v>
       </c>
       <c r="N21">
-        <v>0.489307092035709</v>
+        <v>0.8958648875950743</v>
       </c>
       <c r="O21">
-        <v>2.095207897621748</v>
+        <v>1.713053851507112</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.424989902378002</v>
+        <v>1.067416269712737</v>
       </c>
       <c r="C22">
-        <v>0.9194797802929315</v>
+        <v>0.2907078952989366</v>
       </c>
       <c r="D22">
-        <v>0.06091102640682067</v>
+        <v>0.02148681906179917</v>
       </c>
       <c r="E22">
-        <v>0.4159080782568978</v>
+        <v>0.1689003481057227</v>
       </c>
       <c r="F22">
-        <v>0.8492463474637191</v>
+        <v>0.5642096319423757</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2279557697450016</v>
+        <v>0.3316939123615477</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.602334153624142</v>
+        <v>0.5073426153060865</v>
       </c>
       <c r="N22">
-        <v>0.4780536346565682</v>
+        <v>0.8903281966029439</v>
       </c>
       <c r="O22">
-        <v>2.237617457137162</v>
+        <v>1.735401616727017</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.299656528054015</v>
+        <v>1.029854528956491</v>
       </c>
       <c r="C23">
-        <v>0.8868411793418716</v>
+        <v>0.2808474657763895</v>
       </c>
       <c r="D23">
-        <v>0.05887316337304327</v>
+        <v>0.02082348876265883</v>
       </c>
       <c r="E23">
-        <v>0.3989739142897193</v>
+        <v>0.1653260198407551</v>
       </c>
       <c r="F23">
-        <v>0.8189848415204466</v>
+        <v>0.5585877795687111</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2229709695247131</v>
+        <v>0.3321245437193348</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.540445020856154</v>
+        <v>0.4905091542973281</v>
       </c>
       <c r="N23">
-        <v>0.4839514283817579</v>
+        <v>0.893250140244632</v>
       </c>
       <c r="O23">
-        <v>2.161077627526339</v>
+        <v>1.723366512656298</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.827124650301414</v>
+        <v>0.8873749842153416</v>
       </c>
       <c r="C24">
-        <v>0.763852235200801</v>
+        <v>0.2433810364620399</v>
       </c>
       <c r="D24">
-        <v>0.05115756837188457</v>
+        <v>0.01830103582818765</v>
       </c>
       <c r="E24">
-        <v>0.3368140940412943</v>
+        <v>0.1520106641235799</v>
       </c>
       <c r="F24">
-        <v>0.7079250188094761</v>
+        <v>0.5380196910645481</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2059560694055662</v>
+        <v>0.3342398553511963</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.308870346423035</v>
+        <v>0.4268709405496764</v>
       </c>
       <c r="N24">
-        <v>0.50859616252297</v>
+        <v>0.9050433224582477</v>
       </c>
       <c r="O24">
-        <v>1.882342502879311</v>
+        <v>1.680146228196776</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.320791892578825</v>
+        <v>0.7332583334284095</v>
       </c>
       <c r="C25">
-        <v>0.6321456547164246</v>
+        <v>0.2027159123626916</v>
       </c>
       <c r="D25">
-        <v>0.04283124060630428</v>
+        <v>0.01555932986391895</v>
       </c>
       <c r="E25">
-        <v>0.2732468543654392</v>
+        <v>0.13811160773583</v>
       </c>
       <c r="F25">
-        <v>0.5946172535929861</v>
+        <v>0.5173719367047838</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1910911063436274</v>
+        <v>0.3375499010877867</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.063881322494019</v>
+        <v>0.3584755759702745</v>
       </c>
       <c r="N25">
-        <v>0.5396695583959925</v>
+        <v>0.9193155903011885</v>
       </c>
       <c r="O25">
-        <v>1.602114702022675</v>
+        <v>1.638538550520138</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_166/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_166/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6194284934352936</v>
+        <v>1.949690454012256</v>
       </c>
       <c r="C2">
-        <v>0.1725593584462786</v>
+        <v>0.535632691668269</v>
       </c>
       <c r="D2">
-        <v>0.0135231891998373</v>
+        <v>0.03668771612159816</v>
       </c>
       <c r="E2">
-        <v>0.1282636622105215</v>
+        <v>0.2287651825426238</v>
       </c>
       <c r="F2">
-        <v>0.5034795799655143</v>
+        <v>0.5157489915470919</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3408651183409077</v>
+        <v>0.1826919258339821</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3083193749590762</v>
+        <v>0.8864833804309384</v>
       </c>
       <c r="N2">
-        <v>0.9311592783408713</v>
+        <v>0.5660125643607898</v>
       </c>
       <c r="O2">
-        <v>1.612172864956648</v>
+        <v>1.410230770116357</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5420733954248078</v>
+        <v>1.698727569499255</v>
       </c>
       <c r="C3">
-        <v>0.1519890321154094</v>
+        <v>0.470353103078196</v>
       </c>
       <c r="D3">
-        <v>0.01213268093606956</v>
+        <v>0.03251192333130604</v>
       </c>
       <c r="E3">
-        <v>0.1218239920399995</v>
+        <v>0.1997696672576978</v>
       </c>
       <c r="F3">
-        <v>0.4948761282577863</v>
+        <v>0.4646816732662913</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3436564154520951</v>
+        <v>0.1783815677034042</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2744500294856138</v>
+        <v>0.7676121704600192</v>
       </c>
       <c r="N3">
-        <v>0.9400192022935059</v>
+        <v>0.5858457231618033</v>
       </c>
       <c r="O3">
-        <v>1.596948262432562</v>
+        <v>1.287787709592521</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4944770899284379</v>
+        <v>1.544742553767207</v>
       </c>
       <c r="C4">
-        <v>0.1392938856775459</v>
+        <v>0.4302870239949073</v>
       </c>
       <c r="D4">
-        <v>0.01127379038392462</v>
+        <v>0.02994070095262202</v>
       </c>
       <c r="E4">
-        <v>0.1179836283755336</v>
+        <v>0.1824440703655128</v>
       </c>
       <c r="F4">
-        <v>0.4899921034708754</v>
+        <v>0.4343608126776886</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3456378482473923</v>
+        <v>0.1763535686861069</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2537132601275118</v>
+        <v>0.6951395815335815</v>
       </c>
       <c r="N4">
-        <v>0.9458704867437859</v>
+        <v>0.5989450186498289</v>
       </c>
       <c r="O4">
-        <v>1.58889822309817</v>
+        <v>1.215925620330154</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4750571129632419</v>
+        <v>1.481998614782952</v>
       </c>
       <c r="C5">
-        <v>0.134104397221904</v>
+        <v>0.4139574726149533</v>
       </c>
       <c r="D5">
-        <v>0.01092252354636258</v>
+        <v>0.02889093022685785</v>
       </c>
       <c r="E5">
-        <v>0.1164469638192074</v>
+        <v>0.1754915547377678</v>
       </c>
       <c r="F5">
-        <v>0.4881018492000919</v>
+        <v>0.42224549528094</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.34651243347205</v>
+        <v>0.1756738515242056</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2452777522453076</v>
+        <v>0.6657151260926142</v>
       </c>
       <c r="N5">
-        <v>0.948358372953173</v>
+        <v>0.6045070704212918</v>
       </c>
       <c r="O5">
-        <v>1.5859434156595</v>
+        <v>1.187415966875562</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4718310159394719</v>
+        <v>1.471579824776342</v>
       </c>
       <c r="C6">
-        <v>0.1332417193931406</v>
+        <v>0.4112456483160827</v>
       </c>
       <c r="D6">
-        <v>0.01086412043557061</v>
+        <v>0.02871649307778767</v>
       </c>
       <c r="E6">
-        <v>0.1161935045138378</v>
+        <v>0.1743432596900121</v>
       </c>
       <c r="F6">
-        <v>0.4877940097165805</v>
+        <v>0.4202477416570645</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3466617082070336</v>
+        <v>0.1755695959167518</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2438779428478526</v>
+        <v>0.6608352010514977</v>
       </c>
       <c r="N6">
-        <v>0.9487777329735181</v>
+        <v>0.6054439536632472</v>
       </c>
       <c r="O6">
-        <v>1.58547241930836</v>
+        <v>1.182727066237874</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4942152815112308</v>
+        <v>1.543896368420945</v>
       </c>
       <c r="C7">
-        <v>0.1392239633949544</v>
+        <v>0.4300668152733351</v>
       </c>
       <c r="D7">
-        <v>0.01126905815480939</v>
+        <v>0.02992655156976554</v>
       </c>
       <c r="E7">
-        <v>0.1179627900721911</v>
+        <v>0.1823498855604484</v>
       </c>
       <c r="F7">
-        <v>0.4899662060916299</v>
+        <v>0.4341964718002131</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3456493715760871</v>
+        <v>0.1763438191177471</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2535994355825011</v>
+        <v>0.6947423393712597</v>
       </c>
       <c r="N7">
-        <v>0.945903620384918</v>
+        <v>0.5990191334871326</v>
       </c>
       <c r="O7">
-        <v>1.588857055957931</v>
+        <v>1.21553806894579</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5927778029779063</v>
+        <v>1.863123224950641</v>
       </c>
       <c r="C8">
-        <v>0.1654802915242328</v>
+        <v>0.5131170688493398</v>
       </c>
       <c r="D8">
-        <v>0.01304481692855575</v>
+        <v>0.03524931694525435</v>
       </c>
       <c r="E8">
-        <v>0.1260195259336783</v>
+        <v>0.2186606998280922</v>
       </c>
       <c r="F8">
-        <v>0.5004302778597634</v>
+        <v>0.4979141626327888</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3417719362566984</v>
+        <v>0.1810718672237819</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2966289509915043</v>
+        <v>0.8453768264308934</v>
       </c>
       <c r="N8">
-        <v>0.9341288392769584</v>
+        <v>0.5726549372414453</v>
       </c>
       <c r="O8">
-        <v>1.606653590733941</v>
+        <v>1.367286688621391</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7852290036541376</v>
+        <v>2.49101045177315</v>
       </c>
       <c r="C9">
-        <v>0.2164475552774263</v>
+        <v>0.6764167628637381</v>
       </c>
       <c r="D9">
-        <v>0.01648562158362665</v>
+        <v>0.04563737770291709</v>
       </c>
       <c r="E9">
-        <v>0.1427327368123628</v>
+        <v>0.294256455033441</v>
       </c>
       <c r="F9">
-        <v>0.5241227882272028</v>
+        <v>0.6320119980904906</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.336298087261941</v>
+        <v>0.1956740062429816</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3814824730977904</v>
+        <v>1.145870254365569</v>
       </c>
       <c r="N9">
-        <v>0.9143006215767926</v>
+        <v>0.5286390287245979</v>
       </c>
       <c r="O9">
-        <v>1.651888208096096</v>
+        <v>1.694067185300185</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9260818240026651</v>
+        <v>2.955056207663972</v>
       </c>
       <c r="C10">
-        <v>0.2535701757806237</v>
+        <v>0.7971408396391553</v>
       </c>
       <c r="D10">
-        <v>0.01898735174597732</v>
+        <v>0.0532515825245099</v>
       </c>
       <c r="E10">
-        <v>0.1555876722083909</v>
+        <v>0.3533776329486784</v>
       </c>
       <c r="F10">
-        <v>0.5434807257051233</v>
+        <v>0.7375075878392323</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3335844847410456</v>
+        <v>0.2102770481737757</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4441237877434077</v>
+        <v>1.371289656668296</v>
       </c>
       <c r="N10">
-        <v>0.901720308371992</v>
+        <v>0.5015337030671247</v>
       </c>
       <c r="O10">
-        <v>1.691480876081044</v>
+        <v>1.956233003518662</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9900352928326583</v>
+        <v>3.167143686454892</v>
       </c>
       <c r="C11">
-        <v>0.2703871859748972</v>
+        <v>0.8523414654610804</v>
       </c>
       <c r="D11">
-        <v>0.02011956918149593</v>
+        <v>0.05671467283398357</v>
       </c>
       <c r="E11">
-        <v>0.1615648086037638</v>
+        <v>0.3812723216782814</v>
       </c>
       <c r="F11">
-        <v>0.552714613214647</v>
+        <v>0.7873500522985637</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3326361203143371</v>
+        <v>0.2179114797752781</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4726887606742025</v>
+        <v>1.47522263038924</v>
       </c>
       <c r="N11">
-        <v>0.8964286139695119</v>
+        <v>0.4904707180177468</v>
       </c>
       <c r="O11">
-        <v>1.710886183006835</v>
+        <v>2.081322355819935</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.014234513232566</v>
+        <v>3.247632400132773</v>
       </c>
       <c r="C12">
-        <v>0.2767450911489675</v>
+        <v>0.8732956944174646</v>
       </c>
       <c r="D12">
-        <v>0.02054745068963371</v>
+        <v>0.05802622553709824</v>
       </c>
       <c r="E12">
-        <v>0.1638470985907645</v>
+        <v>0.391999429375673</v>
       </c>
       <c r="F12">
-        <v>0.5562730213843992</v>
+        <v>0.8065206008504617</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3323183020425979</v>
+        <v>0.2209585396690947</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4835155948606769</v>
+        <v>1.514812895687129</v>
       </c>
       <c r="N12">
-        <v>0.8944867908889478</v>
+        <v>0.4864756693907282</v>
       </c>
       <c r="O12">
-        <v>1.718435883464736</v>
+        <v>2.129621503699155</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.009023622240875</v>
+        <v>3.230289336199121</v>
       </c>
       <c r="C13">
-        <v>0.275376265651488</v>
+        <v>0.86878038613645</v>
       </c>
       <c r="D13">
-        <v>0.02045533762079543</v>
+        <v>0.05774374807184302</v>
       </c>
       <c r="E13">
-        <v>0.1633547225914853</v>
+        <v>0.3896815199564045</v>
       </c>
       <c r="F13">
-        <v>0.5555039055048923</v>
+        <v>0.8023782001419875</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.332384910049587</v>
+        <v>0.2202951335959504</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4811834027971287</v>
+        <v>1.506275492296183</v>
       </c>
       <c r="N13">
-        <v>0.8949022380919729</v>
+        <v>0.4873272336142875</v>
       </c>
       <c r="O13">
-        <v>1.716800953093468</v>
+        <v>2.119176483145196</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9920265559777022</v>
+        <v>3.173761817317541</v>
       </c>
       <c r="C14">
-        <v>0.2709104630305319</v>
+        <v>0.8540642990096785</v>
       </c>
       <c r="D14">
-        <v>0.02015478872873189</v>
+        <v>0.05682257044045258</v>
       </c>
       <c r="E14">
-        <v>0.1617521940440696</v>
+        <v>0.3821514384266109</v>
       </c>
       <c r="F14">
-        <v>0.5530061271349922</v>
+        <v>0.7889211067132038</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3326091443882788</v>
+        <v>0.2181589543935374</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4735792926846045</v>
+        <v>1.478474871573724</v>
       </c>
       <c r="N14">
-        <v>0.8962676157349279</v>
+        <v>0.4901380775705206</v>
       </c>
       <c r="O14">
-        <v>1.711503261737676</v>
+        <v>2.085276751455581</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9816129098119291</v>
+        <v>3.139161009925715</v>
       </c>
       <c r="C15">
-        <v>0.2681736777143726</v>
+        <v>0.8450572276891535</v>
       </c>
       <c r="D15">
-        <v>0.01997058047859923</v>
+        <v>0.0562583505725911</v>
       </c>
       <c r="E15">
-        <v>0.160773065736656</v>
+        <v>0.3775610332365602</v>
       </c>
       <c r="F15">
-        <v>0.5514842117100898</v>
+        <v>0.7807177636376395</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3327518788152659</v>
+        <v>0.2168712257399861</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4689228435886434</v>
+        <v>1.461477588070679</v>
       </c>
       <c r="N15">
-        <v>0.8971120275688591</v>
+        <v>0.4918854715949053</v>
       </c>
       <c r="O15">
-        <v>1.708284516414409</v>
+        <v>2.064636234895119</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9218997779911433</v>
+        <v>2.941218513081026</v>
       </c>
       <c r="C16">
-        <v>0.2524697113040304</v>
+        <v>0.793539896508463</v>
       </c>
       <c r="D16">
-        <v>0.01891323909109843</v>
+        <v>0.05302526913592942</v>
       </c>
       <c r="E16">
-        <v>0.1551996789619281</v>
+        <v>0.3515764582323726</v>
       </c>
       <c r="F16">
-        <v>0.5428858970606427</v>
+        <v>0.7342900420939031</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3336522335804801</v>
+        <v>0.2097992010021024</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4422583870204733</v>
+        <v>1.364528125489414</v>
       </c>
       <c r="N16">
-        <v>0.9020748111944599</v>
+        <v>0.5022832048854511</v>
       </c>
       <c r="O16">
-        <v>1.690240822609553</v>
+        <v>1.948183140310391</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8852358523258772</v>
+        <v>2.820063790518475</v>
       </c>
       <c r="C17">
-        <v>0.2428176792677448</v>
+        <v>0.7620151204300214</v>
       </c>
       <c r="D17">
-        <v>0.01826308212041283</v>
+        <v>0.05104188224603234</v>
       </c>
       <c r="E17">
-        <v>0.1518139155644036</v>
+        <v>0.3359057154356577</v>
       </c>
       <c r="F17">
-        <v>0.5377208449864668</v>
+        <v>0.7063030851307275</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3342779621945731</v>
+        <v>0.2057239593674325</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4259182816420264</v>
+        <v>1.305431296297996</v>
       </c>
       <c r="N17">
-        <v>0.9052297649853216</v>
+        <v>0.508994753419671</v>
       </c>
       <c r="O17">
-        <v>1.67952932413553</v>
+        <v>1.878299289325128</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8641363936358744</v>
+        <v>2.750469895229287</v>
       </c>
       <c r="C18">
-        <v>0.2372594865412339</v>
+        <v>0.7439088365086661</v>
       </c>
       <c r="D18">
-        <v>0.01788858162592533</v>
+        <v>0.04990101322312057</v>
       </c>
       <c r="E18">
-        <v>0.1498786736076809</v>
+        <v>0.3269851478471324</v>
       </c>
       <c r="F18">
-        <v>0.5347903038725974</v>
+        <v>0.6903781190060414</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.334664780529323</v>
+        <v>0.2034724400156414</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4165263939940189</v>
+        <v>1.271568893462018</v>
       </c>
       <c r="N18">
-        <v>0.9070849912034546</v>
+        <v>0.5129735780711684</v>
       </c>
       <c r="O18">
-        <v>1.673499552609684</v>
+        <v>1.838646638669815</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8569905669909303</v>
+        <v>2.726921273958055</v>
       </c>
       <c r="C19">
-        <v>0.2353764515522414</v>
+        <v>0.7377825147615056</v>
       </c>
       <c r="D19">
-        <v>0.01776168897001185</v>
+        <v>0.04951471406295127</v>
       </c>
       <c r="E19">
-        <v>0.1492255139549528</v>
+        <v>0.3239801552453727</v>
       </c>
       <c r="F19">
-        <v>0.5338049813531143</v>
+        <v>0.6850149315213372</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.334800368180435</v>
+        <v>0.2027255981489731</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4133475813613501</v>
+        <v>1.260124769128097</v>
       </c>
       <c r="N19">
-        <v>0.9077201078600794</v>
+        <v>0.5143407437483205</v>
       </c>
       <c r="O19">
-        <v>1.671480484180449</v>
+        <v>1.825311443441478</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.889139971578004</v>
+        <v>2.832951256920182</v>
       </c>
       <c r="C20">
-        <v>0.2438458392075802</v>
+        <v>0.7653682309012595</v>
       </c>
       <c r="D20">
-        <v>0.0183323492823817</v>
+        <v>0.05125302343741112</v>
       </c>
       <c r="E20">
-        <v>0.152173075388724</v>
+        <v>0.3375641449728448</v>
       </c>
       <c r="F20">
-        <v>0.5382665052964768</v>
+        <v>0.7092642928618034</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3342085653944551</v>
+        <v>0.2061481128506415</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4276570404212663</v>
+        <v>1.311708719322837</v>
       </c>
       <c r="N20">
-        <v>0.904889714678454</v>
+        <v>0.5082679470803981</v>
       </c>
       <c r="O20">
-        <v>1.680655996881853</v>
+        <v>1.885681732069401</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9970195194483722</v>
+        <v>3.190360269328778</v>
       </c>
       <c r="C21">
-        <v>0.2722224597310969</v>
+        <v>0.8583853009708378</v>
       </c>
       <c r="D21">
-        <v>0.02024309089736676</v>
+        <v>0.05709313632278423</v>
       </c>
       <c r="E21">
-        <v>0.1622223809726151</v>
+        <v>0.3843585851462166</v>
       </c>
       <c r="F21">
-        <v>0.5537381080496999</v>
+        <v>0.7928654894792544</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3325421589150004</v>
+        <v>0.218782053657165</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4758125358242182</v>
+        <v>1.486633980289852</v>
       </c>
       <c r="N21">
-        <v>0.8958648875950743</v>
+        <v>0.489307092035709</v>
       </c>
       <c r="O21">
-        <v>1.713053851507112</v>
+        <v>2.095207897621776</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.067416269712737</v>
+        <v>3.424989902377888</v>
       </c>
       <c r="C22">
-        <v>0.2907078952989366</v>
+        <v>0.9194797802925905</v>
       </c>
       <c r="D22">
-        <v>0.02148681906179917</v>
+        <v>0.06091102640692014</v>
       </c>
       <c r="E22">
-        <v>0.1689003481057227</v>
+        <v>0.4159080782568978</v>
       </c>
       <c r="F22">
-        <v>0.5642096319423757</v>
+        <v>0.8492463474637191</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3316939123615477</v>
+        <v>0.227955769745023</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5073426153060865</v>
+        <v>1.602334153624142</v>
       </c>
       <c r="N22">
-        <v>0.8903281966029439</v>
+        <v>0.4780536346565611</v>
       </c>
       <c r="O22">
-        <v>1.735401616727017</v>
+        <v>2.237617457137134</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.029854528956491</v>
+        <v>3.299656528053845</v>
       </c>
       <c r="C23">
-        <v>0.2808474657763895</v>
+        <v>0.8868411793417295</v>
       </c>
       <c r="D23">
-        <v>0.02082348876265883</v>
+        <v>0.05887316337314985</v>
       </c>
       <c r="E23">
-        <v>0.1653260198407551</v>
+        <v>0.3989739142897122</v>
       </c>
       <c r="F23">
-        <v>0.5585877795687111</v>
+        <v>0.8189848415204608</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3321245437193348</v>
+        <v>0.2229709695246989</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4905091542973281</v>
+        <v>1.540445020856168</v>
       </c>
       <c r="N23">
-        <v>0.893250140244632</v>
+        <v>0.4839514283817508</v>
       </c>
       <c r="O23">
-        <v>1.723366512656298</v>
+        <v>2.161077627526339</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8873749842153416</v>
+        <v>2.827124650301357</v>
       </c>
       <c r="C24">
-        <v>0.2433810364620399</v>
+        <v>0.763852235200801</v>
       </c>
       <c r="D24">
-        <v>0.01830103582818765</v>
+        <v>0.05115756837189167</v>
       </c>
       <c r="E24">
-        <v>0.1520106641235799</v>
+        <v>0.33681409404128</v>
       </c>
       <c r="F24">
-        <v>0.5380196910645481</v>
+        <v>0.7079250188094903</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3342398553511963</v>
+        <v>0.2059560694055662</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4268709405496764</v>
+        <v>1.308870346423035</v>
       </c>
       <c r="N24">
-        <v>0.9050433224582477</v>
+        <v>0.5085961625229558</v>
       </c>
       <c r="O24">
-        <v>1.680146228196776</v>
+        <v>1.882342502879311</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7332583334284095</v>
+        <v>2.320791892578825</v>
       </c>
       <c r="C25">
-        <v>0.2027159123626916</v>
+        <v>0.6321456547162541</v>
       </c>
       <c r="D25">
-        <v>0.01555932986391895</v>
+        <v>0.04283124060636823</v>
       </c>
       <c r="E25">
-        <v>0.13811160773583</v>
+        <v>0.2732468543654534</v>
       </c>
       <c r="F25">
-        <v>0.5173719367047838</v>
+        <v>0.5946172535929861</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3375499010877867</v>
+        <v>0.1910911063436451</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3584755759702745</v>
+        <v>1.063881322494019</v>
       </c>
       <c r="N25">
-        <v>0.9193155903011885</v>
+        <v>0.5396695583959854</v>
       </c>
       <c r="O25">
-        <v>1.638538550520138</v>
+        <v>1.602114702022646</v>
       </c>
     </row>
   </sheetData>
